--- a/DbLayouts/L6-共同作業/CdStock.xlsx
+++ b/DbLayouts/L6-共同作業/CdStock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B372F678-C4AB-42BA-A2C5-643C3C7E80C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1B9E3-9C71-483C-8AFC-F85DF3A3F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,20 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -262,6 +271,23 @@
   </si>
   <si>
     <t>三個月平均價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市上櫃記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:上市
+2:上櫃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1099,23 +1125,25 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1123,17 +1151,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="18">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
         <v>10</v>
@@ -1144,15 +1170,17 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="18">
+        <v>6</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
         <v>10</v>
@@ -1163,30 +1191,40 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="18">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="18">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6</v>
+      </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -1286,6 +1324,15 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
